--- a/src/main/resources/static/file/example.xlsx
+++ b/src/main/resources/static/file/example.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,22 +29,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>男</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>李四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户类别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -60,10 +48,6 @@
   </si>
   <si>
     <t>工号/学号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15033334444</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -235,6 +219,138 @@
       <t>123456</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试学生1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试学生2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试学生3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试学生4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试学生5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试学生6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>15033334444</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13444444444</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13577777777</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13677777777</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15899999999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18200005555</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1234567893</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1234567894</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1234567895</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试教师1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试教师2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试教师3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试教师4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试教师5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试教师6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19146546545</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13254545454</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19888888888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19008787888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14500000066</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19568868888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1234567896</t>
+  </si>
+  <si>
+    <t>1234567897</t>
+  </si>
+  <si>
+    <t>1234567898</t>
+  </si>
+  <si>
+    <t>1234567899</t>
+  </si>
+  <si>
+    <t>1234567900</t>
+  </si>
+  <si>
+    <t>1234567901</t>
   </si>
 </sst>
 </file>
@@ -346,12 +462,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -359,27 +471,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -662,286 +772,305 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G11"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="8.77734375" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="9"/>
+    <col min="3" max="3" width="8.77734375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32" style="8" customWidth="1"/>
     <col min="7" max="7" width="40.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G3" s="6"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G4" s="6"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="D5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="9"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="9"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="9"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="9"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="D8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="9"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
+      <c r="A9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="9"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="A10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="9"/>
-      <c r="G11" s="12"/>
+      <c r="A11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="9"/>
+      <c r="A12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="9"/>
+      <c r="A13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <dataConsolidate/>
